--- a/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample03/Sample-03.xlsx
+++ b/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample03/Sample-03.xlsx
@@ -264,20 +264,20 @@
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="0ydr451b" xfId="1"/>
-    <cellStyle name="0ydr451b_Alternate" xfId="2"/>
-    <cellStyle name="eefoxa3q" xfId="3"/>
-    <cellStyle name="eefoxa3q_Alternate" xfId="4"/>
-    <cellStyle name="fwifbwlk" xfId="5"/>
-    <cellStyle name="fwifbwlk_Alternate" xfId="6"/>
-    <cellStyle name="r25zuzni" xfId="7"/>
-    <cellStyle name="r25zuzni_Alternate" xfId="8"/>
+    <cellStyle name="rgiyrahw" xfId="1"/>
+    <cellStyle name="rgiyrahw_Alternate" xfId="2"/>
+    <cellStyle name="oekcbczk" xfId="3"/>
+    <cellStyle name="oekcbczk_Alternate" xfId="4"/>
+    <cellStyle name="lvyq5nsy" xfId="5"/>
+    <cellStyle name="lvyq5nsy_Alternate" xfId="6"/>
+    <cellStyle name="hg1ctuoo" xfId="7"/>
+    <cellStyle name="hg1ctuoo_Alternate" xfId="8"/>
     <cellStyle name="LocalHeader-1" xfId="9"/>
     <cellStyle name="LocalHeader-1_Alternate" xfId="10"/>
-    <cellStyle name="2tffvjsp" xfId="11"/>
-    <cellStyle name="2tffvjsp_Alternate" xfId="12"/>
-    <cellStyle name="yplqjqeo" xfId="13"/>
-    <cellStyle name="yplqjqeo_Alternate" xfId="14"/>
+    <cellStyle name="vjfrtknc" xfId="11"/>
+    <cellStyle name="vjfrtknc_Alternate" xfId="12"/>
+    <cellStyle name="33b0s1ot" xfId="13"/>
+    <cellStyle name="33b0s1ot_Alternate" xfId="14"/>
     <cellStyle name="LocalHeader0" xfId="15"/>
     <cellStyle name="LocalHeader0_Alternate" xfId="16"/>
     <cellStyle name="LocalHeader1" xfId="17"/>
@@ -703,7 +703,7 @@
   <extLst>
     <ext uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{eac6a402-dabd-4bfe-a216-e1f4595ba686}" type="line" displayHidden="0" displayEmptyCellsAs="gap" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual" low="1" first="1" high="1" last="1" negative="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{49103f43-d605-4706-a418-d724d59486c4}" type="line" displayHidden="0" displayEmptyCellsAs="gap" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual" low="1" first="1" high="1" last="1" negative="1">
           <x14:colorSeries rgb="FFFF5733"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>

--- a/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample03/Sample-03.xlsx
+++ b/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample03/Sample-03.xlsx
@@ -264,20 +264,20 @@
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="rgiyrahw" xfId="1"/>
-    <cellStyle name="rgiyrahw_Alternate" xfId="2"/>
-    <cellStyle name="oekcbczk" xfId="3"/>
-    <cellStyle name="oekcbczk_Alternate" xfId="4"/>
-    <cellStyle name="lvyq5nsy" xfId="5"/>
-    <cellStyle name="lvyq5nsy_Alternate" xfId="6"/>
-    <cellStyle name="hg1ctuoo" xfId="7"/>
-    <cellStyle name="hg1ctuoo_Alternate" xfId="8"/>
+    <cellStyle name="ms3qtydt" xfId="1"/>
+    <cellStyle name="ms3qtydt_Alternate" xfId="2"/>
+    <cellStyle name="kx5d0zx4" xfId="3"/>
+    <cellStyle name="kx5d0zx4_Alternate" xfId="4"/>
+    <cellStyle name="jykyrxrn" xfId="5"/>
+    <cellStyle name="jykyrxrn_Alternate" xfId="6"/>
+    <cellStyle name="izhrgxuh" xfId="7"/>
+    <cellStyle name="izhrgxuh_Alternate" xfId="8"/>
     <cellStyle name="LocalHeader-1" xfId="9"/>
     <cellStyle name="LocalHeader-1_Alternate" xfId="10"/>
-    <cellStyle name="vjfrtknc" xfId="11"/>
-    <cellStyle name="vjfrtknc_Alternate" xfId="12"/>
-    <cellStyle name="33b0s1ot" xfId="13"/>
-    <cellStyle name="33b0s1ot_Alternate" xfId="14"/>
+    <cellStyle name="uqn2mm5s" xfId="11"/>
+    <cellStyle name="uqn2mm5s_Alternate" xfId="12"/>
+    <cellStyle name="raj25rza" xfId="13"/>
+    <cellStyle name="raj25rza_Alternate" xfId="14"/>
     <cellStyle name="LocalHeader0" xfId="15"/>
     <cellStyle name="LocalHeader0_Alternate" xfId="16"/>
     <cellStyle name="LocalHeader1" xfId="17"/>
@@ -703,7 +703,7 @@
   <extLst>
     <ext uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{49103f43-d605-4706-a418-d724d59486c4}" type="line" displayHidden="0" displayEmptyCellsAs="gap" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual" low="1" first="1" high="1" last="1" negative="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{2e3e277e-44d9-4314-b528-098b976c217d}" type="line" displayHidden="0" displayEmptyCellsAs="gap" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual" low="1" first="1" high="1" last="1" negative="1">
           <x14:colorSeries rgb="FFFF5733"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
